--- a/biology/Zoologie/Hespérie_de_la_ballote/Hespérie_de_la_ballote.xlsx
+++ b/biology/Zoologie/Hespérie_de_la_ballote/Hespérie_de_la_ballote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ballote</t>
+          <t>Hespérie_de_la_ballote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodus baeticus
 L’Hespérie de la ballote, Carcharodus baeticus, est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Carcharodus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ballote</t>
+          <t>Hespérie_de_la_ballote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taxon Carcharodus baeticus a été décrit par Pierre Rambur en 1839.
 On trouve parfois l'orthographe erronée « boeticus ».
-Noms vernaculaires
-Carcharodus baeticus se nomme en anglais Southern Marbled Skipper, et en espagnol Piquitos[1].
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ballote</t>
+          <t>Hespérie_de_la_ballote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus tacheté de marron foncé, marron clair et blanc[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcharodus baeticus se nomme en anglais Southern Marbled Skipper, et en espagnol Piquitos.
 </t>
         </is>
       </c>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ballote</t>
+          <t>Hespérie_de_la_ballote</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,16 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une à trois générations suivant sa localisation.
-Il hiverne au stade de jeune chenille[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille seraient des Marrubium dont Marrubium vulgare et des Ballota dont Ballota foetida.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus tacheté de marron foncé, marron clair et blanc.
 </t>
         </is>
       </c>
@@ -594,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ballote</t>
+          <t>Hespérie_de_la_ballote</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,17 +625,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une à trois générations suivant sa localisation.
+Il hiverne au stade de jeune chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille seraient des Marrubium dont Marrubium vulgare et des Ballota dont Ballota foetida.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Europe dans le nord du Portugal, en Espagne, dans le sud de la France, à la limite du nord de l'Italie et du sud de la Suisse et au Moyen-Orient jusqu'en Iran[1],[3].
-En France il serait présent dans les départements du pourtour méditerranéen et des Alpes[4].
-Biotope
-Il réside sur les pentes rocheuses et dans les vallons secs et chauds[2].
-Protection
-Espèce déterminante classée en liste rouge des espèces menacées[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Europe dans le nord du Portugal, en Espagne, dans le sud de la France, à la limite du nord de l'Italie et du sud de la Suisse et au Moyen-Orient jusqu'en Iran,.
+En France il serait présent dans les départements du pourtour méditerranéen et des Alpes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur les pentes rocheuses et dans les vallons secs et chauds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ballote</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce déterminante classée en liste rouge des espèces menacées.
 </t>
         </is>
       </c>
